--- a/DATA_goal/Junction_Flooding_328.xlsx
+++ b/DATA_goal/Junction_Flooding_328.xlsx
@@ -655,103 +655,103 @@
         <v>45009.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.07</v>
+        <v>10.73</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.73</v>
+        <v>7.33</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.4</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.36</v>
+        <v>23.56</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.71</v>
+        <v>17.15</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.18</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.42</v>
+        <v>24.23</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.33</v>
+        <v>13.35</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.25</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.73</v>
+        <v>7.32</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.93</v>
+        <v>9.31</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.02</v>
+        <v>10.19</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.44</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.65</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.17</v>
+        <v>11.65</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.8</v>
+        <v>7.96</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.26</v>
+        <v>2.65</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.09</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>12.42</v>
+        <v>124.22</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.38</v>
+        <v>23.83</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.8</v>
+        <v>7.98</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.5</v>
+        <v>14.96</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.8</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.19</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.36</v>
+        <v>13.6</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.71</v>
+        <v>7.05</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.63</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.76</v>
+        <v>7.56</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.99</v>
+        <v>9.94</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.68</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.16</v>
+        <v>21.63</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.41</v>
+        <v>4.08</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="3">
@@ -759,37 +759,37 @@
         <v>45009.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.21</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.59</v>
+        <v>5.94</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="J3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="M3" s="4" t="n">
         <v>0</v>
@@ -798,64 +798,64 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.16</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.28</v>
       </c>
       <c r="T3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.6</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.35</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.46</v>
       </c>
       <c r="Z3" s="4" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AD3" s="4" t="n">
         <v>0.34</v>
       </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>0.03</v>
-      </c>
       <c r="AE3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.95</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.63</v>
+        <v>6.31</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.15</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>45009.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.61</v>
+        <v>16.12</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.21</v>
+        <v>12.14</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.3</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.52</v>
+        <v>35.2</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.88</v>
+        <v>28.76</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.3</v>
+        <v>13.02</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>4.38</v>
+        <v>43.78</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.97</v>
+        <v>19.71</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.86</v>
+        <v>8.65</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.3</v>
+        <v>13.02</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.41</v>
+        <v>14.12</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.48</v>
+        <v>14.81</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.4</v>
+        <v>4.01</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.28</v>
+        <v>12.78</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.8</v>
+        <v>17.98</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.09</v>
+        <v>10.89</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.92</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>18.77</v>
+        <v>187.66</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.56</v>
+        <v>35.55</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.18</v>
+        <v>11.8</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.37</v>
+        <v>23.66</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.25</v>
+        <v>12.49</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.19</v>
+        <v>1.93</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.24</v>
+        <v>22.43</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.03</v>
+        <v>10.34</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.93</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.09</v>
+        <v>10.87</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.49</v>
+        <v>14.94</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.96</v>
+        <v>39.63</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.67</v>
+        <v>6.72</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.47</v>
+        <v>14.67</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>45009.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.51</v>
+        <v>5.13</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.39</v>
+        <v>3.86</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.13</v>
+        <v>11.26</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.9</v>
+        <v>9.01</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.44</v>
+        <v>4.36</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.99</v>
+        <v>19.86</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.34</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.77</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.41</v>
+        <v>4.08</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.45</v>
+        <v>4.53</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.47</v>
+        <v>4.68</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.28</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.41</v>
+        <v>4.14</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.77</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.37</v>
+        <v>3.67</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>5.59</v>
+        <v>55.93</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.18</v>
+        <v>11.8</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.82</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.77</v>
+        <v>7.72</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.4</v>
+        <v>3.99</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.97</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.33</v>
+        <v>3.3</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.31</v>
+        <v>3.09</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.36</v>
+        <v>3.58</v>
       </c>
       <c r="AD5" s="4" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="AE5" s="4" t="n">
         <v>0.48</v>
       </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="AF5" s="4" t="n">
-        <v>1.86</v>
+        <v>18.64</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.22</v>
+        <v>2.19</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.47</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_328.xlsx
+++ b/DATA_goal/Junction_Flooding_328.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,13 +655,13 @@
         <v>45009.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>10.73</v>
+        <v>10.726</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>7.33</v>
+        <v>7.333</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.4</v>
+        <v>3.404</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>23.56</v>
@@ -670,88 +670,88 @@
         <v>17.15</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>8.18</v>
+        <v>8.176</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>24.23</v>
+        <v>24.228</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>13.35</v>
+        <v>13.347</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.25</v>
+        <v>5.245</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>7.32</v>
+        <v>7.323</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>9.31</v>
+        <v>9.308999999999999</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>10.19</v>
+        <v>10.191</v>
       </c>
       <c r="N2" s="4" t="n">
         <v>2.44</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>8.65</v>
+        <v>8.647</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>11.65</v>
+        <v>11.655</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.96</v>
+        <v>7.955</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.65</v>
+        <v>2.648</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.09</v>
+        <v>1.093</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>124.22</v>
+        <v>124.223</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>23.83</v>
+        <v>23.834</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>7.98</v>
+        <v>7.982</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>14.96</v>
+        <v>14.964</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>8.050000000000001</v>
+        <v>8.048999999999999</v>
       </c>
       <c r="Y2" s="4" t="n">
         <v>2.19</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>13.6</v>
+        <v>13.597</v>
       </c>
       <c r="AA2" s="4" t="n">
         <v>7.05</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>6.63</v>
+        <v>6.629</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>7.56</v>
+        <v>7.562</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>9.94</v>
+        <v>9.942</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.68</v>
+        <v>2.682</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>21.63</v>
+        <v>21.628</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.08</v>
+        <v>4.075</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>9.98</v>
+        <v>9.978</v>
       </c>
     </row>
     <row r="3">
@@ -759,25 +759,25 @@
         <v>45009.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.17</v>
+        <v>0.173</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.2</v>
+        <v>0.199</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.21</v>
+        <v>1.215</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.49</v>
+        <v>0.488</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.034</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>5.94</v>
+        <v>5.943</v>
       </c>
       <c r="I3" s="4" t="n">
         <v>0.54</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.11</v>
+        <v>0.114</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.19</v>
+        <v>0.188</v>
       </c>
       <c r="M3" s="4" t="n">
         <v>0</v>
@@ -798,64 +798,64 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.38</v>
+        <v>0.376</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.44</v>
+        <v>0.436</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="R3" s="4" t="n">
         <v>1.16</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.28</v>
+        <v>0.283</v>
       </c>
       <c r="T3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.6</v>
+        <v>1.595</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.35</v>
+        <v>0.347</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.73</v>
+        <v>0.733</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.29</v>
+        <v>0.291</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.46</v>
+        <v>0.458</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.43</v>
+        <v>3.433</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.21</v>
+        <v>0.213</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.48</v>
+        <v>0.484</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.46</v>
+        <v>0.458</v>
       </c>
       <c r="AD3" s="4" t="n">
         <v>0.34</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.95</v>
+        <v>0.951</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>6.31</v>
+        <v>6.305</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.15</v>
+        <v>0.153</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.36</v>
+        <v>0.363</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>45009.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>16.12</v>
+        <v>16.124</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>12.14</v>
+        <v>12.137</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.3</v>
+        <v>1.296</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>35.2</v>
+        <v>35.198</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>28.76</v>
+        <v>28.755</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>13.02</v>
+        <v>13.021</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>43.78</v>
+        <v>43.779</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>19.71</v>
+        <v>19.715</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>8.65</v>
+        <v>8.648999999999999</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>13.02</v>
+        <v>13.023</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>14.12</v>
+        <v>14.124</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>14.81</v>
+        <v>14.807</v>
       </c>
       <c r="N4" s="4" t="n">
         <v>4.01</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>12.78</v>
+        <v>12.783</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>17.98</v>
+        <v>17.976</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>10.89</v>
+        <v>10.885</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.92</v>
+        <v>0.918</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.64</v>
+        <v>0.636</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>187.66</v>
+        <v>187.662</v>
       </c>
       <c r="U4" s="4" t="n">
         <v>35.55</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>11.8</v>
+        <v>11.799</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>23.66</v>
+        <v>23.662</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>12.49</v>
+        <v>12.489</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.93</v>
+        <v>1.929</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>22.43</v>
+        <v>22.428</v>
       </c>
       <c r="AA4" s="4" t="n">
         <v>10.34</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>9.300000000000001</v>
+        <v>9.297000000000001</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>10.87</v>
+        <v>10.872</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>14.94</v>
+        <v>14.943</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.64</v>
+        <v>0.638</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>39.63</v>
+        <v>39.628</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>6.72</v>
+        <v>6.722</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>14.67</v>
+        <v>14.667</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>4.7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45009.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>18.61</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>13.98</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>40.58</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>33.28</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>14.93</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>53.65</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>22.63</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>15.04</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>16.29</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>17.15</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.67</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>14.66</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>20.78</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>12.35</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>216.04</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>40.91</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>13.53</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>27.46</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>14.45</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>26.83</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>10.59</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>12.43</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>17.18</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>48.68</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7.74</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>16.85</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_328.xlsx
+++ b/DATA_goal/Junction_Flooding_328.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,7 +455,7 @@
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
     <col width="8" customWidth="1" min="17" max="17"/>
@@ -967,103 +967,207 @@
         <v>45009.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>5.13</v>
+        <v>5.125</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.86</v>
+        <v>3.856</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.72</v>
+        <v>0.721</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>11.26</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>9.01</v>
+        <v>9.006</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.36</v>
+        <v>4.362</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>19.86</v>
+        <v>19.858</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>6.34</v>
+        <v>6.341</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.77</v>
+        <v>2.767</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.08</v>
+        <v>4.084</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.53</v>
+        <v>4.526</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.68</v>
+        <v>4.679</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.28</v>
+        <v>1.276</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4.14</v>
+        <v>4.136</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>5.77</v>
+        <v>5.772</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.67</v>
+        <v>3.669</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.64</v>
+        <v>0.637</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0.26</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>55.93</v>
+        <v>55.931</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>11.8</v>
+        <v>11.799</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.82</v>
+        <v>3.817</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>7.72</v>
+        <v>7.718</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.99</v>
+        <v>3.993</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.73</v>
+        <v>0.725</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>9.699999999999999</v>
+        <v>9.695</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.3</v>
+        <v>3.299</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.09</v>
+        <v>3.089</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.58</v>
+        <v>3.583</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>4.82</v>
+        <v>4.821</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.48</v>
+        <v>0.481</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>18.64</v>
+        <v>18.642</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.19</v>
+        <v>2.187</v>
       </c>
       <c r="AH5" s="4" t="n">
         <v>4.7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45009.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>18.61</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>13.98</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>40.58</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>33.28</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>14.93</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>53.65</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>22.63</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>15.04</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>16.29</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>17.15</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>14.66</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>20.78</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>216.04</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>40.91</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>13.53</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>27.46</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>14.45</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>26.83</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>10.59</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>12.43</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>17.18</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>48.68</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>16.85</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_328.xlsx
+++ b/DATA_goal/Junction_Flooding_328.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,7 +455,7 @@
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
-    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="6" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
     <col width="8" customWidth="1" min="17" max="17"/>
@@ -967,207 +967,103 @@
         <v>45009.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>5.125</v>
+        <v>5.13</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.856</v>
+        <v>3.86</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.721</v>
+        <v>0.72</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>11.26</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>9.006</v>
+        <v>9.01</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.362</v>
+        <v>4.36</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>19.858</v>
+        <v>19.86</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>6.341</v>
+        <v>6.34</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.767</v>
+        <v>2.77</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.084</v>
+        <v>4.08</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.526</v>
+        <v>4.53</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.679</v>
+        <v>4.68</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.276</v>
+        <v>1.28</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4.136</v>
+        <v>4.14</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>5.772</v>
+        <v>5.77</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.669</v>
+        <v>3.67</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.637</v>
+        <v>0.64</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0.26</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>55.931</v>
+        <v>55.93</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>11.799</v>
+        <v>11.8</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.817</v>
+        <v>3.82</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>7.718</v>
+        <v>7.72</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.993</v>
+        <v>3.99</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.725</v>
+        <v>0.73</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>9.695</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.299</v>
+        <v>3.3</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.089</v>
+        <v>3.09</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.583</v>
+        <v>3.58</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>4.821</v>
+        <v>4.82</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.481</v>
+        <v>0.48</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>18.642</v>
+        <v>18.64</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.187</v>
+        <v>2.19</v>
       </c>
       <c r="AH5" s="4" t="n">
         <v>4.7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45009.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>18.61</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>13.98</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>40.58</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>33.28</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>14.93</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>53.65</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>22.63</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>15.04</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>16.29</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>17.15</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.67</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>14.66</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>20.78</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>12.35</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>216.04</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>40.91</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>13.53</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>27.46</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>14.45</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>26.83</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>10.59</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>12.43</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>17.18</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>48.68</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7.74</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>16.85</v>
       </c>
     </row>
   </sheetData>
